--- a/site_settings/fixtures/excel_data/vendors.xlsx
+++ b/site_settings/fixtures/excel_data/vendors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="128">
   <si>
     <t>9</t>
   </si>
@@ -398,6 +398,9 @@
   <si>
     <t>title</t>
   </si>
+  <si>
+    <t>Action Style Hellas_</t>
+  </si>
 </sst>
 </file>
 
@@ -750,11 +753,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1665,7 +1671,7 @@
         <v>54</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4169,7 +4175,7 @@
         <v>54</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="428" spans="1:2">
